--- a/CASA/InportAndInwardBills/resources/MIIB.xlsx
+++ b/CASA/InportAndInwardBills/resources/MIIB.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="78">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>003B0136_2025</t>
+  </si>
+  <si>
+    <t>003B0141_2025</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1028,7 @@
         <v>48</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
